--- a/Assets/Notes/GameStatus.xlsx
+++ b/Assets/Notes/GameStatus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>-- filling in the blank screens for the 4 info pages (biology, ecology, catching prey, survival threats)</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>-- refine catch-prey animations</t>
+  </si>
+  <si>
+    <t>-- trees sway in the wind</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P42"/>
+  <dimension ref="C2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,6 +780,14 @@
       <c r="G42" s="6"/>
       <c r="I42" s="6"/>
     </row>
+    <row r="44" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
